--- a/6-sampledata/DiemQuaTrinh_21111TNC10709003.xlsx
+++ b/6-sampledata/DiemQuaTrinh_21111TNC10709003.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12575" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BangDiemQT_21111TNC10709003" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="225">
   <si>
     <t>ỦY BAN NHÂN DÂN TP.HỒ CHÍ MINH</t>
   </si>
@@ -350,6 +350,12 @@
     <t>thaobtp@tdc.edu.vn</t>
   </si>
   <si>
+    <t>thaobtp</t>
+  </si>
+  <si>
+    <t>Cô</t>
+  </si>
+  <si>
     <t>Cao Trần Thái</t>
   </si>
   <si>
@@ -359,6 +365,12 @@
     <t>anhctt@tdc.edu.vn</t>
   </si>
   <si>
+    <t>anhctt</t>
+  </si>
+  <si>
+    <t>Thầy</t>
+  </si>
+  <si>
     <t>Nguyễn Huy</t>
   </si>
   <si>
@@ -368,6 +380,9 @@
     <t>hoanghn@tdc.edu.vn</t>
   </si>
   <si>
+    <t>hoanghn</t>
+  </si>
+  <si>
     <t>Hoàng Công</t>
   </si>
   <si>
@@ -377,6 +392,9 @@
     <t>trinhhc@tdc.edu.vn</t>
   </si>
   <si>
+    <t>trinhhc</t>
+  </si>
+  <si>
     <t>Huỳnh Thị Phương</t>
   </si>
   <si>
@@ -386,12 +404,18 @@
     <t>thuyhtp@tdc.edu.vn</t>
   </si>
   <si>
+    <t>thuyhtp</t>
+  </si>
+  <si>
     <t>Lâm Thị Phương</t>
   </si>
   <si>
     <t>thaoltp@tdc.edu.vn</t>
   </si>
   <si>
+    <t>thaoltp</t>
+  </si>
+  <si>
     <t>Lê Diên</t>
   </si>
   <si>
@@ -401,6 +425,9 @@
     <t>tamld@tdc.edu.vn</t>
   </si>
   <si>
+    <t>tamld</t>
+  </si>
+  <si>
     <t>Lê</t>
   </si>
   <si>
@@ -410,6 +437,9 @@
     <t>thole@tdc.edu.vn</t>
   </si>
   <si>
+    <t>thole</t>
+  </si>
+  <si>
     <t>Mai Kỷ</t>
   </si>
   <si>
@@ -419,6 +449,9 @@
     <t>tuyenmk@tdc.edu.vn</t>
   </si>
   <si>
+    <t>tuyenmk</t>
+  </si>
+  <si>
     <t>Nguyễn Hoàng</t>
   </si>
   <si>
@@ -428,12 +461,18 @@
     <t>nguyennh@tdc.edu.vn</t>
   </si>
   <si>
+    <t>nguyennh</t>
+  </si>
+  <si>
     <t>Nguyễn Ngọc Cẩm</t>
   </si>
   <si>
     <t>tunnc@tdc.edu.vn</t>
   </si>
   <si>
+    <t>tunnc</t>
+  </si>
+  <si>
     <t>Nguyễn Ngọc Ánh</t>
   </si>
   <si>
@@ -443,6 +482,9 @@
     <t>nguyenngocanhmy@tdc.edu.vn</t>
   </si>
   <si>
+    <t>nguyenngocanhmy</t>
+  </si>
+  <si>
     <t>Nguyễn Phong</t>
   </si>
   <si>
@@ -452,6 +494,9 @@
     <t>nguyenphonglan@tdc.edu.vn</t>
   </si>
   <si>
+    <t>nguyenphonglan</t>
+  </si>
+  <si>
     <t>Nguyễn Thanh</t>
   </si>
   <si>
@@ -461,12 +506,18 @@
     <t>vunt@tdc.edu.vn</t>
   </si>
   <si>
+    <t>vunt</t>
+  </si>
+  <si>
     <t>Nguyễn Thị Hồng</t>
   </si>
   <si>
     <t>mynth@tdc.edu.vn</t>
   </si>
   <si>
+    <t>mynth</t>
+  </si>
+  <si>
     <t>Nguyễn Thị Mộng</t>
   </si>
   <si>
@@ -476,6 +527,9 @@
     <t>hangntm@tdc.edu.vn</t>
   </si>
   <si>
+    <t>hangntm</t>
+  </si>
+  <si>
     <t>Ngô Minh Anh</t>
   </si>
   <si>
@@ -485,6 +539,9 @@
     <t>thu.ngo@tdc.edu.vn</t>
   </si>
   <si>
+    <t>thu.ngo</t>
+  </si>
+  <si>
     <t>Phan Gia</t>
   </si>
   <si>
@@ -494,6 +551,9 @@
     <t>phuocpg@tdc.edu.vn</t>
   </si>
   <si>
+    <t>phuocpg</t>
+  </si>
+  <si>
     <t>Phan Thanh</t>
   </si>
   <si>
@@ -503,6 +563,9 @@
     <t>ptnhuan@tdc.edu.vn</t>
   </si>
   <si>
+    <t>ptnhuan</t>
+  </si>
+  <si>
     <t>Phan Thị</t>
   </si>
   <si>
@@ -512,12 +575,18 @@
     <t>thept@tdc.edu.vn</t>
   </si>
   <si>
+    <t>thept</t>
+  </si>
+  <si>
     <t>Trinh</t>
   </si>
   <si>
     <t>trinhpt@tdc.edu.vn</t>
   </si>
   <si>
+    <t>trinhpt</t>
+  </si>
+  <si>
     <t>Tiêu Kim</t>
   </si>
   <si>
@@ -527,12 +596,18 @@
     <t>cuongtk@tdc.edu.vn</t>
   </si>
   <si>
+    <t>cuongtk</t>
+  </si>
+  <si>
     <t>Trương Bá</t>
   </si>
   <si>
     <t>truongbathai@tdc.edu.vn</t>
   </si>
   <si>
+    <t>truongbathai</t>
+  </si>
+  <si>
     <t>Nguyễn Thị</t>
   </si>
   <si>
@@ -542,12 +617,18 @@
     <t>vannt@tdc.edu.vn</t>
   </si>
   <si>
+    <t>vannt</t>
+  </si>
+  <si>
     <t>Bùi Thanh Yên</t>
   </si>
   <si>
     <t>buithanhyenthao@tdc.edu.vn</t>
   </si>
   <si>
+    <t>buithanhyenthao</t>
+  </si>
+  <si>
     <t>Đoàn Quốc</t>
   </si>
   <si>
@@ -557,6 +638,9 @@
     <t>thuanqd@tdc.edu.vn</t>
   </si>
   <si>
+    <t>thuanqd</t>
+  </si>
+  <si>
     <t>Đồng Thị</t>
   </si>
   <si>
@@ -564,6 +648,48 @@
   </si>
   <si>
     <t>donghoan@tdc.edu.vn</t>
+  </si>
+  <si>
+    <t>donghoan</t>
+  </si>
+  <si>
+    <t>Thực tập doanh nghiệp [Cô Bùi Thị Phương Thảo]</t>
+  </si>
+  <si>
+    <t>Thực tập doanh nghiệp [Thầy Cao Trần Thái Anh]</t>
+  </si>
+  <si>
+    <t>Thực tập doanh nghiệp [Thầy Nguyễn Huy Hoàng]</t>
+  </si>
+  <si>
+    <t>Thực tập doanh nghiệp [Thầy Lê Thọ]</t>
+  </si>
+  <si>
+    <t>Thực tập doanh nghiệp [Cô Nguyễn Ngọc Cẩm Tú]</t>
+  </si>
+  <si>
+    <t>Thực tập doanh nghiệp [Cô Nguyễn Phong Lan]</t>
+  </si>
+  <si>
+    <t>Thực tập doanh nghiệp [Thầy Nguyễn Thanh Vũ]</t>
+  </si>
+  <si>
+    <t>Thực tập doanh nghiệp [Cô Nguyễn Thị Mộng Hằng]</t>
+  </si>
+  <si>
+    <t>Thực tập doanh nghiệp [Cô Ngô Minh Anh Thư]</t>
+  </si>
+  <si>
+    <t>Thực tập doanh nghiệp [Thầy Phan Thanh Nhuần]</t>
+  </si>
+  <si>
+    <t>Thực tập doanh nghiệp [Cô Phan Thị Thể]</t>
+  </si>
+  <si>
+    <t>Thực tập doanh nghiệp [Thầy Trương Bá Thái]</t>
+  </si>
+  <si>
+    <t>Thực tập doanh nghiệp [Thầy Đoàn Quốc Thuận]</t>
   </si>
 </sst>
 </file>
@@ -577,7 +703,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -588,9 +714,24 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -652,14 +793,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1082,179 +1215,181 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1605,874 +1740,874 @@
   <sheetPr/>
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="4.71296296296296" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.2777777777778" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.3888888888889" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.14814814814815" style="2" customWidth="1"/>
-    <col min="6" max="10" width="8.89814814814815" style="2"/>
-    <col min="11" max="11" width="19.5092592592593" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.7037037037037" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="8.89814814814815" style="2"/>
+    <col min="1" max="1" width="4.71296296296296" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.2777777777778" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.3888888888889" style="4" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7.14814814814815" style="4" customWidth="1"/>
+    <col min="6" max="10" width="8.89814814814815" style="4"/>
+    <col min="11" max="11" width="19.5092592592593" style="4" customWidth="1"/>
+    <col min="12" max="12" width="9.7037037037037" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="8.89814814814815" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" ht="22.8" spans="1:12">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="11:11">
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="8" t="s">
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="8" t="s">
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11">
+      <c r="E17" s="12"/>
+      <c r="F17" s="13">
         <f>SUM(A14+A15)</f>
         <v>3</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
     </row>
     <row r="35" spans="11:12">
-      <c r="K35" s="3" t="s">
+      <c r="K35" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="L35" s="5" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="37" spans="10:10">
-      <c r="J37" s="3" t="s">
+      <c r="J37" s="5" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="38" spans="10:12">
-      <c r="J38" s="4" t="s">
+      <c r="J38" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="K38" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="L38" s="6" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2511,322 +2646,822 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:F28"/>
+  <dimension ref="A2:S45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F3" sqref="F2:F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>108</v>
       </c>
       <c r="C2" t="s">
         <v>109</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="I2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M2" t="str">
+        <f>A2&amp;" "&amp;C2</f>
+        <v>Bùi Thị Phương Thảo</v>
+      </c>
+      <c r="S2" t="str">
+        <f>"Thực tập doanh nghiệp ["&amp;L2&amp;" "&amp;M2&amp;"]"</f>
+        <v>Thực tập doanh nghiệp [Cô Bùi Thị Phương Thảo]</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M28" si="0">A3&amp;" "&amp;C3</f>
+        <v>Cao Trần Thái Anh</v>
+      </c>
+      <c r="S3" t="str">
+        <f t="shared" ref="S3:S28" si="1">"Thực tập doanh nghiệp ["&amp;L3&amp;" "&amp;M3&amp;"]"</f>
+        <v>Thực tập doanh nghiệp [Thầy Cao Trần Thái Anh]</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L4" t="s">
+        <v>117</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="0"/>
+        <v>Nguyễn Huy Hoàng</v>
+      </c>
+      <c r="S4" t="str">
+        <f t="shared" si="1"/>
+        <v>Thực tập doanh nghiệp [Thầy Nguyễn Huy Hoàng]</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L5" t="s">
+        <v>117</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="0"/>
+        <v>Hoàng Công Trình</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" si="1"/>
+        <v>Thực tập doanh nghiệp [Thầy Hoàng Công Trình]</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L6" t="s">
         <v>112</v>
       </c>
-      <c r="F3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="M6" t="str">
+        <f t="shared" si="0"/>
+        <v>Huỳnh Thị Phương Thủy</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="1"/>
+        <v>Thực tập doanh nghiệp [Cô Huỳnh Thị Phương Thủy]</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
         <v>109</v>
       </c>
-      <c r="F7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="0"/>
+        <v>Lâm Thị Phương Thảo</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="1"/>
+        <v>Thực tập doanh nghiệp [Cô Lâm Thị Phương Thảo]</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>134</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" t="s">
+        <v>136</v>
+      </c>
+      <c r="L8" t="s">
+        <v>117</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="0"/>
+        <v>Lê Diên Tâm</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="1"/>
+        <v>Thực tập doanh nghiệp [Thầy Lê Diên Tâm]</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>138</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I9" t="s">
+        <v>140</v>
+      </c>
+      <c r="L9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="0"/>
+        <v>Lê Thọ</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="1"/>
+        <v>Thực tập doanh nghiệp [Thầy Lê Thọ]</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>142</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10" t="s">
+        <v>144</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="0"/>
+        <v>Mai Kỷ Tuyên</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="1"/>
+        <v>Thực tập doanh nghiệp [Cô Mai Kỷ Tuyên]</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>146</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I11" t="s">
+        <v>148</v>
+      </c>
+      <c r="L11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="0"/>
+        <v>Nguyễn Hoàng Nguyên</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="1"/>
+        <v>Thực tập doanh nghiệp [Thầy Nguyễn Hoàng Nguyên]</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
         <v>97</v>
       </c>
-      <c r="F12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I12" t="s">
+        <v>151</v>
+      </c>
+      <c r="L12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="0"/>
+        <v>Nguyễn Ngọc Cẩm Tú</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="1"/>
+        <v>Thực tập doanh nghiệp [Cô Nguyễn Ngọc Cẩm Tú]</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>153</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I13" t="s">
+        <v>155</v>
+      </c>
+      <c r="L13" t="s">
+        <v>112</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="0"/>
+        <v>Nguyễn Ngọc Ánh Mỹ</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="1"/>
+        <v>Thực tập doanh nghiệp [Cô Nguyễn Ngọc Ánh Mỹ]</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>157</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I14" t="s">
+        <v>159</v>
+      </c>
+      <c r="L14" t="s">
+        <v>112</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="0"/>
+        <v>Nguyễn Phong Lan</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="1"/>
+        <v>Thực tập doanh nghiệp [Cô Nguyễn Phong Lan]</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>161</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I15" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" t="s">
+        <v>117</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="0"/>
+        <v>Nguyễn Thanh Vũ</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="1"/>
+        <v>Thực tập doanh nghiệp [Thầy Nguyễn Thanh Vũ]</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>153</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I16" t="s">
+        <v>166</v>
+      </c>
+      <c r="L16" t="s">
+        <v>112</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="0"/>
+        <v>Nguyễn Thị Hồng Mỹ</v>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" si="1"/>
+        <v>Thực tập doanh nghiệp [Cô Nguyễn Thị Hồng Mỹ]</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s">
-        <v>151</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>168</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+      <c r="L17" t="s">
+        <v>112</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="0"/>
+        <v>Nguyễn Thị Mộng Hằng</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="1"/>
+        <v>Thực tập doanh nghiệp [Cô Nguyễn Thị Mộng Hằng]</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="C18" t="s">
-        <v>154</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>172</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I18" t="s">
+        <v>174</v>
+      </c>
+      <c r="L18" t="s">
+        <v>112</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="0"/>
+        <v>Ngô Minh Anh Thư</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="1"/>
+        <v>Thực tập doanh nghiệp [Cô Ngô Minh Anh Thư]</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="C19" t="s">
-        <v>157</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>176</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I19" t="s">
+        <v>178</v>
+      </c>
+      <c r="L19" t="s">
+        <v>117</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="0"/>
+        <v>Phan Gia Phước</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="1"/>
+        <v>Thực tập doanh nghiệp [Thầy Phan Gia Phước]</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="C20" t="s">
-        <v>160</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>180</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I20" t="s">
+        <v>182</v>
+      </c>
+      <c r="L20" t="s">
+        <v>117</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="0"/>
+        <v>Phan Thanh Nhuần</v>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" si="1"/>
+        <v>Thực tập doanh nghiệp [Thầy Phan Thanh Nhuần]</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="C21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>184</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I21" t="s">
+        <v>186</v>
+      </c>
+      <c r="L21" t="s">
+        <v>112</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="0"/>
+        <v>Phan Thị Thể</v>
+      </c>
+      <c r="S21" t="str">
+        <f t="shared" si="1"/>
+        <v>Thực tập doanh nghiệp [Cô Phan Thị Thể]</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="C22" t="s">
-        <v>165</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>187</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I22" t="s">
+        <v>189</v>
+      </c>
+      <c r="L22" t="s">
+        <v>112</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="0"/>
+        <v>Phan Thị Trinh</v>
+      </c>
+      <c r="S22" t="str">
+        <f t="shared" si="1"/>
+        <v>Thực tập doanh nghiệp [Cô Phan Thị Trinh]</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="C23" t="s">
-        <v>168</v>
-      </c>
-      <c r="F23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>191</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I23" t="s">
+        <v>193</v>
+      </c>
+      <c r="L23" t="s">
+        <v>117</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="0"/>
+        <v>Tiêu Kim Cương</v>
+      </c>
+      <c r="S23" t="str">
+        <f t="shared" si="1"/>
+        <v>Thực tập doanh nghiệp [Thầy Tiêu Kim Cương]</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="C24" t="s">
         <v>70</v>
       </c>
-      <c r="F24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="F24" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I24" t="s">
+        <v>196</v>
+      </c>
+      <c r="L24" t="s">
+        <v>117</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="0"/>
+        <v>Trương Bá Thái</v>
+      </c>
+      <c r="S24" t="str">
+        <f t="shared" si="1"/>
+        <v>Thực tập doanh nghiệp [Thầy Trương Bá Thái]</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="C25" t="s">
-        <v>173</v>
-      </c>
-      <c r="F25" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>198</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I25" t="s">
+        <v>200</v>
+      </c>
+      <c r="L25" t="s">
+        <v>112</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="0"/>
+        <v>Nguyễn Thị Vân</v>
+      </c>
+      <c r="S25" t="str">
+        <f t="shared" si="1"/>
+        <v>Thực tập doanh nghiệp [Cô Nguyễn Thị Vân]</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="C26" t="s">
         <v>109</v>
       </c>
-      <c r="F26" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="F26" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I26" t="s">
+        <v>203</v>
+      </c>
+      <c r="L26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="0"/>
+        <v>Bùi Thanh Yên Thảo</v>
+      </c>
+      <c r="S26" t="str">
+        <f t="shared" si="1"/>
+        <v>Thực tập doanh nghiệp [Cô Bùi Thanh Yên Thảo]</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="C27" t="s">
-        <v>178</v>
-      </c>
-      <c r="F27" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>205</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I27" t="s">
+        <v>207</v>
+      </c>
+      <c r="L27" t="s">
+        <v>117</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="0"/>
+        <v>Đoàn Quốc Thuận</v>
+      </c>
+      <c r="S27" t="str">
+        <f t="shared" si="1"/>
+        <v>Thực tập doanh nghiệp [Thầy Đoàn Quốc Thuận]</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="C28" t="s">
-        <v>181</v>
-      </c>
-      <c r="F28" t="s">
-        <v>182</v>
+        <v>209</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I28" t="s">
+        <v>211</v>
+      </c>
+      <c r="L28" t="s">
+        <v>112</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="0"/>
+        <v>Đồng Thị Hoan</v>
+      </c>
+      <c r="S28" t="str">
+        <f t="shared" si="1"/>
+        <v>Thực tập doanh nghiệp [Cô Đồng Thị Hoan]</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>212</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>213</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>214</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>215</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>216</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>217</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>219</v>
+      </c>
+      <c r="F40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>220</v>
+      </c>
+      <c r="F41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>221</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>222</v>
+      </c>
+      <c r="F43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>223</v>
+      </c>
+      <c r="F44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>224</v>
+      </c>
+      <c r="F45">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F9" r:id="rId1" display="thole@tdc.edu.vn"/>
-    <hyperlink ref="F15" r:id="rId2" display="vunt@tdc.edu.vn"/>
-    <hyperlink ref="F16" r:id="rId3" display="mynth@tdc.edu.vn"/>
-    <hyperlink ref="F17" r:id="rId4" display="hangntm@tdc.edu.vn"/>
-    <hyperlink ref="F18" r:id="rId5" display="thu.ngo@tdc.edu.vn"/>
-    <hyperlink ref="F19" r:id="rId6" display="phuocpg@tdc.edu.vn"/>
-    <hyperlink ref="F20" r:id="rId7" display="ptnhuan@tdc.edu.vn"/>
-    <hyperlink ref="F21" r:id="rId8" display="thept@tdc.edu.vn"/>
-    <hyperlink ref="F22" r:id="rId9" display="trinhpt@tdc.edu.vn"/>
+    <hyperlink ref="F9" r:id="rId1" display="thole@tdc.edu.vn" tooltip="mailto:thole@tdc.edu.vn"/>
+    <hyperlink ref="F15" r:id="rId2" display="vunt@tdc.edu.vn" tooltip="mailto:vunt@tdc.edu.vn"/>
+    <hyperlink ref="F16" r:id="rId3" display="mynth@tdc.edu.vn" tooltip="mailto:mynth@tdc.edu.vn"/>
+    <hyperlink ref="F17" r:id="rId4" display="hangntm@tdc.edu.vn" tooltip="mailto:hangntm@tdc.edu.vn"/>
+    <hyperlink ref="F18" r:id="rId5" display="thu.ngo@tdc.edu.vn" tooltip="mailto:thu.ngo@tdc.edu.vn"/>
+    <hyperlink ref="F19" r:id="rId6" display="phuocpg@tdc.edu.vn" tooltip="mailto:phuocpg@tdc.edu.vn"/>
+    <hyperlink ref="F20" r:id="rId7" display="ptnhuan@tdc.edu.vn" tooltip="mailto:ptnhuan@tdc.edu.vn"/>
+    <hyperlink ref="F21" r:id="rId8" display="thept@tdc.edu.vn" tooltip="mailto:thept@tdc.edu.vn"/>
+    <hyperlink ref="F22" r:id="rId9" display="trinhpt@tdc.edu.vn" tooltip="mailto:trinhpt@tdc.edu.vn"/>
+    <hyperlink ref="F2" r:id="rId10" display="thaobtp@tdc.edu.vn"/>
+    <hyperlink ref="F3" r:id="rId11" display="anhctt@tdc.edu.vn"/>
+    <hyperlink ref="F4" r:id="rId12" display="hoanghn@tdc.edu.vn"/>
+    <hyperlink ref="F5" r:id="rId13" display="trinhhc@tdc.edu.vn"/>
+    <hyperlink ref="F6" r:id="rId14" display="thuyhtp@tdc.edu.vn"/>
+    <hyperlink ref="F7" r:id="rId15" display="thaoltp@tdc.edu.vn"/>
+    <hyperlink ref="F8" r:id="rId16" display="tamld@tdc.edu.vn"/>
+    <hyperlink ref="F10" r:id="rId17" display="tuyenmk@tdc.edu.vn"/>
+    <hyperlink ref="F11" r:id="rId18" display="nguyennh@tdc.edu.vn"/>
+    <hyperlink ref="F12" r:id="rId19" display="tunnc@tdc.edu.vn"/>
+    <hyperlink ref="F13" r:id="rId20" display="nguyenngocanhmy@tdc.edu.vn"/>
+    <hyperlink ref="F14" r:id="rId21" display="nguyenphonglan@tdc.edu.vn"/>
+    <hyperlink ref="F23" r:id="rId22" display="cuongtk@tdc.edu.vn"/>
+    <hyperlink ref="F24" r:id="rId23" display="truongbathai@tdc.edu.vn"/>
+    <hyperlink ref="F25" r:id="rId24" display="vannt@tdc.edu.vn"/>
+    <hyperlink ref="F26" r:id="rId25" display="buithanhyenthao@tdc.edu.vn"/>
+    <hyperlink ref="F27" r:id="rId26" display="thuanqd@tdc.edu.vn"/>
+    <hyperlink ref="F28" r:id="rId27" display="donghoan@tdc.edu.vn"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
